--- a/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Support_files\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B006F63-064D-4DA3-B82A-3E7D40072537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB0BA72-58CA-410F-9C73-448E954D377E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="795" windowWidth="16845" windowHeight="13995" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="11130" yWindow="1485" windowWidth="16845" windowHeight="13995" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Bears" sheetId="4" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>You're brilliant!</t>
-  </si>
-  <si>
-    <t>You're stupid.</t>
-  </si>
-  <si>
     <t>What is the best kind of bear?</t>
   </si>
   <si>
@@ -74,13 +68,19 @@
     <t>Koala</t>
   </si>
   <si>
-    <t>It's not even a bear, dumbshit.</t>
-  </si>
-  <si>
-    <t>Obviously it's not the grizzly.</t>
-  </si>
-  <si>
     <t>Battlestar Galactica.</t>
+  </si>
+  <si>
+    <t>Wrong! Totally overrated.</t>
+  </si>
+  <si>
+    <t>Wrong!  They eat penguins.</t>
+  </si>
+  <si>
+    <t>Wrong!  It's the same as a grizzly.  Isn't it?  Or not?</t>
+  </si>
+  <si>
+    <t>It's not even a bear, for pete's sake.</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -458,35 +458,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,18 +497,18 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB0BA72-58CA-410F-9C73-448E954D377E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A084A446-3757-4436-BA61-7D773DC4517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="1485" windowWidth="16845" windowHeight="13995" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Bears" sheetId="4" r:id="rId1"/>
+    <sheet name="1_Thinking" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Black</t>
   </si>
@@ -81,6 +83,21 @@
   </si>
   <si>
     <t>It's not even a bear, for pete's sake.</t>
+  </si>
+  <si>
+    <t>"Inductive Reasoning" is often described as going "from specifics to the general": observing individual facts and trying to come up with a general rule about how something works.   Is this closer to "thinking like a human" or "thinking like a computer"?</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Inductive reasoning is a kind of modeling: the "general rule" that it seeks is essentially a model.</t>
+  </si>
+  <si>
+    <t>Computers usually start with a rule (an algorithm) and decide whether the data fits that rule ("if *this* is greater than *that*, then do this….")</t>
   </si>
 </sst>
 </file>
@@ -116,8 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,4 +534,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1909F-DAE6-428E-9A1D-9615A016AEE3}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38FAB08-259B-44C1-9C24-1131A52D41D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A084A446-3757-4436-BA61-7D773DC4517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36615414-D6C2-4F4B-8691-8BD7C114BD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="1200" yWindow="1185" windowWidth="16845" windowHeight="13995" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Bears" sheetId="4" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>It's not even a bear, for pete's sake.</t>
   </si>
   <si>
-    <t>"Inductive Reasoning" is often described as going "from specifics to the general": observing individual facts and trying to come up with a general rule about how something works.   Is this closer to "thinking like a human" or "thinking like a computer"?</t>
-  </si>
-  <si>
     <t>Human</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Computers usually start with a rule (an algorithm) and decide whether the data fits that rule ("if *this* is greater than *that*, then do this….")</t>
+  </si>
+  <si>
+    <t>"Inductive Reasoning" is often described as going "from specifics to the general": observing individual facts and trying to come up with a general rule about how something works. &lt;br&gt;  Is this closer to "thinking like a human" or "thinking like a computer"?</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1909F-DAE6-428E-9A1D-9615A016AEE3}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -565,24 +565,24 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38FAB08-259B-44C1-9C24-1131A52D41D5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36615414-D6C2-4F4B-8691-8BD7C114BD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A28D8-843B-4D22-9B69-0478391A2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1185" windowWidth="16845" windowHeight="13995" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="14490" yWindow="765" windowWidth="13590" windowHeight="13995" firstSheet="2" activeTab="5" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Bears" sheetId="4" r:id="rId1"/>
     <sheet name="1_Thinking" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="2_time_drop" sheetId="6" r:id="rId3"/>
+    <sheet name="3_variables" sheetId="7" r:id="rId4"/>
+    <sheet name="4_units" sheetId="8" r:id="rId5"/>
+    <sheet name="5_Errors" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>Black</t>
   </si>
@@ -94,10 +97,127 @@
     <t>Inductive reasoning is a kind of modeling: the "general rule" that it seeks is essentially a model.</t>
   </si>
   <si>
-    <t>Computers usually start with a rule (an algorithm) and decide whether the data fits that rule ("if *this* is greater than *that*, then do this….")</t>
-  </si>
-  <si>
-    <t>"Inductive Reasoning" is often described as going "from specifics to the general": observing individual facts and trying to come up with a general rule about how something works. &lt;br&gt;  Is this closer to "thinking like a human" or "thinking like a computer"?</t>
+    <t>"Inductive Reasoning" is often described as going "from specifics to the general": observing individual facts and trying to come up with a general rule about how something works.  Is this closer to "thinking like a human" or "thinking like a computer"?</t>
+  </si>
+  <si>
+    <t>Computers usually start with a rule (an algorithm) and act on that rule ("if *this* is greater than *that*, then do this…."): this is more like what is called "deductive reasoning."</t>
+  </si>
+  <si>
+    <t>8.817885 s</t>
+  </si>
+  <si>
+    <t>Our simple model here says it will take 8.817885 seconds for the penny to drop.   What do you think is the best expression of our answer?</t>
+  </si>
+  <si>
+    <t>8.82 s</t>
+  </si>
+  <si>
+    <t>8.8 s</t>
+  </si>
+  <si>
+    <t>About 10 s</t>
+  </si>
+  <si>
+    <t>This is still too exact given the assumptions we made (no drag, in particular).  Drag would surely increase the fall by more than 0.1 s.</t>
+  </si>
+  <si>
+    <t>This answer expresses the significant uncertainty we have in the result, and does not implicitly claim more precision than reasonable.</t>
+  </si>
+  <si>
+    <t>This is much too exact given the assumptions we made (no drag, in particular, but also wind, etc…)</t>
+  </si>
+  <si>
+    <t>The three horizontal lines</t>
+  </si>
+  <si>
+    <t>Which icon in the upper right would I click in order to find the values of all the defined variables in a notebook?</t>
+  </si>
+  <si>
+    <t>The magnifying glass</t>
+  </si>
+  <si>
+    <t>The { x }</t>
+  </si>
+  <si>
+    <t>The file folder</t>
+  </si>
+  <si>
+    <t>This gives you the table of contents</t>
+  </si>
+  <si>
+    <t>This is the search bar</t>
+  </si>
+  <si>
+    <t>Yep!</t>
+  </si>
+  <si>
+    <t>This tells you what files you have uploaded into the notebook environment (we haven't done this yet)</t>
+  </si>
+  <si>
+    <t>Which of the following are base units in the metric system?</t>
+  </si>
+  <si>
+    <t>Kilometer</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Kilowatt</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>The meter is the base length unit</t>
+  </si>
+  <si>
+    <t>Yep!  Notice this is the only base unit that has a prefix (kilo)</t>
+  </si>
+  <si>
+    <t>The watt is the base unit</t>
+  </si>
+  <si>
+    <t>The second is the base unit</t>
+  </si>
+  <si>
+    <t>Oddly, this is not a base unit: it's the kilogram.</t>
+  </si>
+  <si>
+    <t>When you get an error message, what should you do?</t>
+  </si>
+  <si>
+    <t>Panic</t>
+  </si>
+  <si>
+    <t>Sit and wait until the professor comes and tells you what is wrong</t>
+  </si>
+  <si>
+    <t>Look first at the last line of the error message</t>
+  </si>
+  <si>
+    <t>Look for the arrow to show you the source of the error</t>
+  </si>
+  <si>
+    <t>Put the error in a search engine on the internet to see what it means</t>
+  </si>
+  <si>
+    <t>Remain calm.  It's just code.</t>
+  </si>
+  <si>
+    <t>This often tells you the type of error.</t>
+  </si>
+  <si>
+    <t>Remember, you are lovable and capable.  Let's focus on that second part here.  Half of coding is figuring stuff out on your own.  It just takes practice.</t>
+  </si>
+  <si>
+    <t>Look for the line that is actually in your code that is being pointed too: that's where to start your debugging.</t>
+  </si>
+  <si>
+    <t>Yes!  This is advanced debugging!  So many people have seen the same error, and have posted a way to fix it.</t>
   </si>
 </sst>
 </file>
@@ -540,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1909F-DAE6-428E-9A1D-9615A016AEE3}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +674,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -574,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -582,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -592,12 +712,309 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38FAB08-259B-44C1-9C24-1131A52D41D5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A521D-EB6A-4283-A3F3-1DF14FC309D5}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5089D85-785A-4FAD-9398-48CEC937A0AF}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D02873-3959-4A46-89BE-BF8B1DF2EC75}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_1_Intro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A28D8-843B-4D22-9B69-0478391A2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="765" windowWidth="13590" windowHeight="13995" firstSheet="2" activeTab="5" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="11355" yWindow="630" windowWidth="13590" windowHeight="13995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0_Bears" sheetId="4" r:id="rId1"/>
@@ -19,8 +18,9 @@
     <sheet name="3_variables" sheetId="7" r:id="rId4"/>
     <sheet name="4_units" sheetId="8" r:id="rId5"/>
     <sheet name="5_Errors" sheetId="9" r:id="rId6"/>
+    <sheet name="6_Intuition" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>Black</t>
   </si>
@@ -100,9 +100,6 @@
     <t>"Inductive Reasoning" is often described as going "from specifics to the general": observing individual facts and trying to come up with a general rule about how something works.  Is this closer to "thinking like a human" or "thinking like a computer"?</t>
   </si>
   <si>
-    <t>Computers usually start with a rule (an algorithm) and act on that rule ("if *this* is greater than *that*, then do this…."): this is more like what is called "deductive reasoning."</t>
-  </si>
-  <si>
     <t>8.817885 s</t>
   </si>
   <si>
@@ -178,12 +175,6 @@
     <t>Yep!  Notice this is the only base unit that has a prefix (kilo)</t>
   </si>
   <si>
-    <t>The watt is the base unit</t>
-  </si>
-  <si>
-    <t>The second is the base unit</t>
-  </si>
-  <si>
     <t>Oddly, this is not a base unit: it's the kilogram.</t>
   </si>
   <si>
@@ -193,9 +184,6 @@
     <t>Panic</t>
   </si>
   <si>
-    <t>Sit and wait until the professor comes and tells you what is wrong</t>
-  </si>
-  <si>
     <t>Look first at the last line of the error message</t>
   </si>
   <si>
@@ -208,22 +196,67 @@
     <t>Remain calm.  It's just code.</t>
   </si>
   <si>
-    <t>This often tells you the type of error.</t>
-  </si>
-  <si>
-    <t>Remember, you are lovable and capable.  Let's focus on that second part here.  Half of coding is figuring stuff out on your own.  It just takes practice.</t>
-  </si>
-  <si>
-    <t>Look for the line that is actually in your code that is being pointed too: that's where to start your debugging.</t>
-  </si>
-  <si>
-    <t>Yes!  This is advanced debugging!  So many people have seen the same error, and have posted a way to fix it.</t>
+    <t>The watt is the base unit for power</t>
+  </si>
+  <si>
+    <t>The second is the base unit for time</t>
+  </si>
+  <si>
+    <t>The last line of the message often tells you the type of error.</t>
+  </si>
+  <si>
+    <t>Remember, you are lovable and capable.  Let's focus on that second part here: half of coding is figuring stuff out on your own.  It just takes practice.</t>
+  </si>
+  <si>
+    <t>Sit quietly and wait until the professor comes and tells you how to fix the problem</t>
+  </si>
+  <si>
+    <t>Sometimes the arrow will point at some code you don't recognize.  But keep looking until you find an arrow that points to a line that is actually in your code: that's where to start your debugging.</t>
+  </si>
+  <si>
+    <t>Yes!  That's is advanced debugging, baby!!  Just copy and paste that error, and start trying to find a helpful answer.</t>
+  </si>
+  <si>
+    <t>Computers have trouble generalizing.  Instead, they follow a set of established rules (called an "algorithm") and act on that rule ("if *this* is greater than *that*, then do this…."): this is more like what is called "deductive reasoning."</t>
+  </si>
+  <si>
+    <t>Which of these is a good example of "physical intution"?</t>
+  </si>
+  <si>
+    <t>A first baseman in baseball learns from experience that a bounced ball on dirt bounces higher than one bouncing on grass</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>The player is modeling how a thrown ball bounces.</t>
+  </si>
+  <si>
+    <t>A scientist takes a measurement of mass of 15 squirrels and finds the mean</t>
+  </si>
+  <si>
+    <t>This is data gathering.  But if the scientist internalizes a sense of how much a squirrel usually weighs, that becomes more like intution.</t>
+  </si>
+  <si>
+    <t>The driver is modeling the behavior of the car in response to different variables.</t>
+  </si>
+  <si>
+    <t>A 15-year-old driver figures out that she cannot take the corner next to her house as fast when it has been raining.</t>
+  </si>
+  <si>
+    <t>A student does a homework momentum homework problem; after finding an answer, he does the problem again because the answer doesn't seem right.</t>
+  </si>
+  <si>
+    <t>This is how you should do homework!  Always have an estimate (a model!) of about what the answer should be; then math errors (thinking like a computer) become less of a problem.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -657,11 +690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1909F-DAE6-428E-9A1D-9615A016AEE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -702,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38FAB08-259B-44C1-9C24-1131A52D41D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -727,7 +760,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -738,46 +771,46 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A521D-EB6A-4283-A3F3-1DF14FC309D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -802,7 +835,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -813,46 +846,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -861,77 +894,78 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5089D85-785A-4FAD-9398-48CEC937A0AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -940,78 +974,155 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D02873-3959-4A46-89BE-BF8B1DF2EC75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>58</v>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
